--- a/Daily Task List/Riaan Wilkins Daily Task List.xlsx
+++ b/Daily Task List/Riaan Wilkins Daily Task List.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Daily Task List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Timesheets\Daily Task List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Task List" sheetId="1" r:id="rId1"/>
+    <sheet name="Reports to complete" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>Resource</t>
   </si>
@@ -47,13 +47,109 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>HR Onboarding</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Arrival Documents</t>
+  </si>
+  <si>
+    <t>Offer Letter</t>
+  </si>
+  <si>
+    <t>Onboarding Form</t>
+  </si>
+  <si>
+    <t>Recruitment &amp; Confirmation Checklist</t>
+  </si>
+  <si>
+    <t>Interview Rating Forms</t>
+  </si>
+  <si>
+    <t>New Employee Profile Form</t>
+  </si>
+  <si>
+    <t>Offer Letter Template</t>
+  </si>
+  <si>
+    <t>Declaration of Secrecy</t>
+  </si>
+  <si>
+    <t>Letter if Authority to Pay Employee Net Indebtedness to Bank</t>
+  </si>
+  <si>
+    <t>Password Secrecy Undertaking</t>
+  </si>
+  <si>
+    <t>Guarantor Form</t>
+  </si>
+  <si>
+    <t>Related Party Form</t>
+  </si>
+  <si>
+    <t>Account Opening Form</t>
+  </si>
+  <si>
+    <t>National Housing Form</t>
+  </si>
+  <si>
+    <t>Asset Declaration Form</t>
+  </si>
+  <si>
+    <t>Recruitment/Confirmation Checklist</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>CBN Form for AGMs &amp; Above</t>
+  </si>
+  <si>
+    <t>HR Demographics</t>
+  </si>
+  <si>
+    <t>Group Staff Distribution by nationality &amp; Location during YYYY FY</t>
+  </si>
+  <si>
+    <t>Staff Distribution by Location</t>
+  </si>
+  <si>
+    <t>Staff Distribution by Gender</t>
+  </si>
+  <si>
+    <t>Staff Distribution by Nationality</t>
+  </si>
+  <si>
+    <t>Gender Analysis per Grade &amp; Designation</t>
+  </si>
+  <si>
+    <t>Report No</t>
+  </si>
+  <si>
+    <t>Reporting Area</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Environment Loaded On (UAT/PreProd/Prod)</t>
+  </si>
+  <si>
+    <t>Reason Not Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +180,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +199,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,10 +239,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -142,8 +259,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,12 +671,399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>5</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'HR Admin'!A1" display="HR Onboarding"/>
+    <hyperlink ref="B3:B18" location="'HR Admin'!A1" display="HR Onboarding"/>
+    <hyperlink ref="B19" location="'HR Admin'!A1" display="HR Demographics"/>
+    <hyperlink ref="B20:B23" location="'HR Admin'!A1" display="HR Demographics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Daily Task List/Riaan Wilkins Daily Task List.xlsx
+++ b/Daily Task List/Riaan Wilkins Daily Task List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Timesheets\Daily Task List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UBA\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
     <sheet name="Reports to complete" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
   <si>
     <t>Resource</t>
   </si>
@@ -143,6 +143,135 @@
   </si>
   <si>
     <t>Reason Not Completed</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>HR Medical</t>
+  </si>
+  <si>
+    <t>Avon Medical Template</t>
+  </si>
+  <si>
+    <t>Avon Medical Template Changes</t>
+  </si>
+  <si>
+    <t>Avon Medical Staff Dependants Exit Template for Above 18</t>
+  </si>
+  <si>
+    <t>Avon Medical Staff Hospital Exits Template</t>
+  </si>
+  <si>
+    <t>Avon Medical Report - Deleted Dependants</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Department Wise NHF Details</t>
+  </si>
+  <si>
+    <t>Pensions Report</t>
+  </si>
+  <si>
+    <t>Monthly Cost Analysis Report</t>
+  </si>
+  <si>
+    <t>Updates Report</t>
+  </si>
+  <si>
+    <t>Payment Details Report</t>
+  </si>
+  <si>
+    <t>Pay register Details Report</t>
+  </si>
+  <si>
+    <t>Employees Compensation Act (ECA) Report Schedule</t>
+  </si>
+  <si>
+    <t>Nigeria Branch Operations Staff Cost Report</t>
+  </si>
+  <si>
+    <t>Head Office Operations Staff Cost</t>
+  </si>
+  <si>
+    <t>Nigeria Branch IT Staff Cost No</t>
+  </si>
+  <si>
+    <t>Nigeria HQ IT Staff Cost No</t>
+  </si>
+  <si>
+    <t>Salaries &amp; Wage per Grade &amp; Designation</t>
+  </si>
+  <si>
+    <t>Defined Contribution per Grade &amp; Designation</t>
+  </si>
+  <si>
+    <t>Salaries/Wages Band Stratification</t>
+  </si>
+  <si>
+    <t>Remuneration to the Group's Directors</t>
+  </si>
+  <si>
+    <t>Directors' Benefits Band Stratification</t>
+  </si>
+  <si>
+    <t>Prod (busy Testing)</t>
+  </si>
+  <si>
+    <t>Requested example</t>
+  </si>
+  <si>
+    <t>Busy (Received info)</t>
+  </si>
+  <si>
+    <t>UAT (Tested)</t>
+  </si>
+  <si>
+    <t>All work ethics done and was taken over by Alma and some was redone by her from the end of December 2017 and Hershlin added some information</t>
+  </si>
+  <si>
+    <t>Work ethics: sanc001 - sanc020</t>
+  </si>
+  <si>
+    <t>Testing on 10,16 and uba</t>
+  </si>
+  <si>
+    <t>Loaded on uba</t>
+  </si>
+  <si>
+    <t>not printing</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>AS ABOVE</t>
+  </si>
+  <si>
+    <t>HR GEOGRAPHICS</t>
+  </si>
+  <si>
+    <t>SQL, CRYSTAL DESIGN,  TOTAL OF 5 REPORTS</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>TESTING 10,16</t>
+  </si>
+  <si>
+    <t>TESTING 10,15</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Testing on 10,16 , making changes to margins TOTAL OF 21 REPORTS</t>
   </si>
 </sst>
 </file>
@@ -243,9 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -266,6 +394,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,87 +759,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+    <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>43133</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="29">
+        <v>43133</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="33">
+        <v>43136</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="36">
+        <v>43137</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>43137</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="29">
+        <v>43138</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>43138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="29">
+        <v>43141</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>43139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="29">
+        <v>43142</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>43140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="29">
+        <v>43143</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>43143</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="29">
+        <v>43144</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>43144</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29">
+        <v>43145</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,398 +959,818 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="E3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="E5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="E9" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="E11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="E12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="E14" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="E15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="E16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="E17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>3</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="E21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>4</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>5</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>1</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>2</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>3</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>4</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
+        <v>2</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
+        <v>3</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>4</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
+        <v>5</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
+        <v>6</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25">
+        <v>7</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
+        <v>8</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
+        <v>9</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
+        <v>10</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
+        <v>11</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
+        <v>12</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
+        <v>13</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>14</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
+        <v>15</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>16</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B46:F46"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'HR Admin'!A1" display="HR Onboarding"/>
     <hyperlink ref="B3:B18" location="'HR Admin'!A1" display="HR Onboarding"/>
     <hyperlink ref="B19" location="'HR Admin'!A1" display="HR Demographics"/>
     <hyperlink ref="B20:B23" location="'HR Admin'!A1" display="HR Demographics"/>
+    <hyperlink ref="B24" location="Medical!A1" display="HR Medical"/>
+    <hyperlink ref="B25" location="Medical!A1" display="HR Medical"/>
+    <hyperlink ref="B26" location="Medical!A1" display="HR Medical"/>
+    <hyperlink ref="B27" location="Medical!A1" display="HR Medical"/>
+    <hyperlink ref="B28" location="Medical!A1" display="HR Medical"/>
+    <hyperlink ref="B29" location="'Payroll Reports'!A1" display="Payroll"/>
+    <hyperlink ref="B30:B44" location="'Payroll Reports'!A1" display="Payroll"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1074,7 +1782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily Task List/Riaan Wilkins Daily Task List.xlsx
+++ b/Daily Task List/Riaan Wilkins Daily Task List.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>Resource</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Testing on 10,16 , making changes to margins TOTAL OF 21 REPORTS</t>
+  </si>
+  <si>
+    <t>UPLOADED TO UBA AND TESTING</t>
+  </si>
+  <si>
+    <t>UBA</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -416,9 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -444,6 +447,13 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,17 +769,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="31" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -783,7 +793,7 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -800,16 +810,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>43133</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>43133</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -821,37 +831,37 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>43136</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>43137</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>43137</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>43138</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -863,16 +873,16 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>43138</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>43141</v>
       </c>
       <c r="E5" s="1"/>
@@ -880,16 +890,16 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>43139</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>43142</v>
       </c>
       <c r="E6" s="1"/>
@@ -897,16 +907,16 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>43140</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>43143</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -918,16 +928,16 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>43143</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>43144</v>
       </c>
       <c r="E8" s="1"/>
@@ -935,21 +945,44 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>43144</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>43145</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>43145</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="38">
+        <v>43146</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,13 +1780,13 @@
       <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Daily Task List/Riaan Wilkins Daily Task List.xlsx
+++ b/Daily Task List/Riaan Wilkins Daily Task List.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>Resource</t>
   </si>
@@ -278,6 +278,30 @@
   </si>
   <si>
     <t>UBA</t>
+  </si>
+  <si>
+    <t>Payroll / HR Geographics</t>
+  </si>
+  <si>
+    <t>SQL, CRYSTAL DESIGN / testing on UBA</t>
+  </si>
+  <si>
+    <t>SQL PAYROL / TESTING HR GEO ON UBA</t>
+  </si>
+  <si>
+    <t>ON GOING</t>
+  </si>
+  <si>
+    <t>PRINT SERVER PROBLEMS, LOGINING INTO THE SYSTEM</t>
+  </si>
+  <si>
+    <t>TESTED VIEW, RPT FILE AND SYSTEM LOGIN PROBLEM, RESET PASSWORD</t>
+  </si>
+  <si>
+    <t>PAYROLL SQL</t>
+  </si>
+  <si>
+    <t>WRITING MAIN PAYROLL VIEW</t>
   </si>
 </sst>
 </file>
@@ -350,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -373,12 +397,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -447,13 +484,15 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -769,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +891,7 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="40">
         <v>43137</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -873,7 +912,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="40">
         <v>43138</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -890,7 +929,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="40">
         <v>43139</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -907,7 +946,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="40">
         <v>43140</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -928,7 +967,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="40">
         <v>43143</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -945,7 +984,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="40">
         <v>43144</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -966,16 +1005,16 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="40">
         <v>43145</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>43146</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -983,6 +1022,69 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>43146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="37">
+        <v>43154</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>43147</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="37">
+        <v>43154</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>43150</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="37">
+        <v>43151</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1780,13 +1882,13 @@
       <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Daily Task List/Riaan Wilkins Daily Task List.xlsx
+++ b/Daily Task List/Riaan Wilkins Daily Task List.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
   <si>
     <t>Resource</t>
   </si>
@@ -302,25 +302,46 @@
   </si>
   <si>
     <t>WRITING MAIN PAYROLL VIEW</t>
+  </si>
+  <si>
+    <t>TRAVELING INJECTIONS, Changed the YSTAFFDIST ORACLE VIEW</t>
+  </si>
+  <si>
+    <t>WORKING ON PAYROLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR GEOGRAPHICS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER TESTING REPORTS ON 10,16… CHARL SAID THAT REPORTS DOES NOT PRINT… CHECKED AND CORRECTED  PROBLEMS </t>
+  </si>
+  <si>
+    <t>HR GEOGRAPHICS / PAYROLL</t>
+  </si>
+  <si>
+    <t>REPORTS CAME UP WITH ERRORS AFTER THE FIRST TESTING ON 10,16</t>
+  </si>
+  <si>
+    <t>REPORTS CAME UP WITH ERRORS AFTER THE FIRST TESTING ON 10,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT PRINTING AND NOT SEEING PARAMETERS </t>
+  </si>
+  <si>
+    <t>MOVED PAYROLL BACK TO SORT OUT PROBLEMS WITH HR GEOGRAPHICS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -332,20 +353,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -374,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,56 +440,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -458,41 +472,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,213 +821,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="29">
         <v>43133</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="30">
         <v>43133</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
         <v>43136</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="30">
         <v>43137</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
         <v>43137</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="30">
         <v>43138</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="A5" s="29">
         <v>43138</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="30">
         <v>43141</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
         <v>43139</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="30">
         <v>43142</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
         <v>43140</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="30">
         <v>43143</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+      <c r="A8" s="29">
         <v>43143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="30">
         <v>43144</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="29">
         <v>43144</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="30">
         <v>43145</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>43145</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="31">
         <v>43146</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -1023,68 +1037,190 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
         <v>43146</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="31">
         <v>43154</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
         <v>43147</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="31">
         <v>43154</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
+      <c r="A13" s="29">
         <v>43150</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="31">
         <v>43151</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>43151</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="31">
+        <v>43154</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>43152</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>43153</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>43154</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,785 +1246,785 @@
     <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>1</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>2</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="C30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>3</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
         <v>4</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>5</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
         <v>6</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>7</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
-        <v>8</v>
-      </c>
-      <c r="B36" s="26" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>8</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>9</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="24" t="s">
+      <c r="C37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
         <v>10</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="24" t="s">
+      <c r="C38" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
         <v>11</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
         <v>12</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
         <v>13</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
         <v>14</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
         <v>15</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="21" t="s">
+      <c r="C43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
         <v>16</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
